--- a/external/correzioni/MAR_edit.xlsx
+++ b/external/correzioni/MAR_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidenicoli/Local_Workspace/TesiMag/external/correzioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EA6CD-4710-8A40-B475-4093AD5FCE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA56CFA8-C88A-5B42-B64E-FD12B23CA334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{2CEEA78D-C176-B848-8833-ABF857DD75F6}"/>
   </bookViews>
@@ -1241,9 +1241,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>elev_ok</t>
-  </si>
-  <si>
     <t>Pochi dati - posizione non molto accurata, ma teniamo così</t>
   </si>
   <si>
@@ -1359,6 +1356,9 @@
   </si>
   <si>
     <t>elev_precision</t>
+  </si>
+  <si>
+    <t>ele_ok</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1436,11 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1506,7 +1502,7 @@
     <tableColumn id="26" xr3:uid="{1CF802BF-F562-1440-B5FF-7ABD4AE14A94}" name="original_dataset"/>
     <tableColumn id="27" xr3:uid="{1A7E0F01-38D0-484A-8E65-1BD7B0C9CD35}" name="lon_ok"/>
     <tableColumn id="28" xr3:uid="{775379C5-9CB2-714D-94FC-55424C809F01}" name="lat_ok"/>
-    <tableColumn id="29" xr3:uid="{E7260DFF-8BF7-A249-8F6E-9298F79C5883}" name="elev_ok"/>
+    <tableColumn id="29" xr3:uid="{E7260DFF-8BF7-A249-8F6E-9298F79C5883}" name="ele_ok"/>
     <tableColumn id="30" xr3:uid="{F0385530-0DFB-B04B-974D-B9CABE2B43DC}" name="loc_precision"/>
     <tableColumn id="31" xr3:uid="{3E0BD35B-C01B-274C-A0D9-E70683E42AD0}" name="elev_precision"/>
     <tableColumn id="32" xr3:uid="{63A78076-3037-1443-B33A-1D4AAFE35669}" name="keep"/>
@@ -1835,10 +1831,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834817FA-F9CF-D142-9E4B-760749044D55}">
   <dimension ref="A1:AG163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="AB13" sqref="AB13"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1959,16 +1955,16 @@
         <v>398</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="AF1" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>399</v>
@@ -2062,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -2148,7 +2144,7 @@
         <v>192.65</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -2234,7 +2230,7 @@
         <v>393</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -2494,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -2661,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -3005,7 +3001,7 @@
         <v>700</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -3102,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -3188,7 +3184,7 @@
         <v>52</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -3899,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
@@ -4075,7 +4071,7 @@
         <v>565</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
@@ -4167,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
@@ -4350,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
@@ -4436,7 +4432,7 @@
         <v>396</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
@@ -4522,7 +4518,7 @@
         <v>850</v>
       </c>
       <c r="AG30" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
@@ -4773,7 +4769,7 @@
         <v>715</v>
       </c>
       <c r="AG33" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
@@ -4949,7 +4945,7 @@
         <v>793</v>
       </c>
       <c r="AG35" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
@@ -5290,7 +5286,7 @@
         <v>220</v>
       </c>
       <c r="AG39" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
@@ -5978,7 +5974,7 @@
         <v>690</v>
       </c>
       <c r="AG47" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
@@ -6325,7 +6321,7 @@
         <v>43.517231000000002</v>
       </c>
       <c r="AG51" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
@@ -6495,7 +6491,7 @@
         <v>752</v>
       </c>
       <c r="AG53" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
@@ -7188,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
@@ -7358,7 +7354,7 @@
         <v>408</v>
       </c>
       <c r="AG63" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
@@ -7788,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="AG68" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
@@ -8126,7 +8122,7 @@
         <v>104.43</v>
       </c>
       <c r="AG72" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
@@ -8567,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
@@ -8918,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="AG81" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
@@ -9099,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="AG83" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
@@ -9622,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="AG89" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
@@ -9797,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="AG91" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
@@ -10154,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="AG95" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
@@ -10337,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AG97" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
@@ -10518,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="AG99" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
@@ -10697,7 +10693,7 @@
         <v>242.48</v>
       </c>
       <c r="AG101" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
@@ -10962,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AG104" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
@@ -11048,7 +11044,7 @@
         <v>189</v>
       </c>
       <c r="AG105" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.2">
@@ -11139,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="AG106" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
@@ -11398,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="AG109" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.2">
@@ -11658,7 +11654,7 @@
         <v>331</v>
       </c>
       <c r="AG112" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.2">
@@ -11747,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="AG113" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.2">
@@ -12186,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="AG118" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.2">
@@ -12277,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="AG119" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.2">
@@ -12360,7 +12356,7 @@
         <v>37</v>
       </c>
       <c r="AG120" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.2">
@@ -12446,7 +12442,7 @@
         <v>409</v>
       </c>
       <c r="AG121" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.2">
@@ -13048,7 +13044,7 @@
         <v>270</v>
       </c>
       <c r="AG128" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.2">
@@ -13134,7 +13130,7 @@
         <v>220</v>
       </c>
       <c r="AG129" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -13313,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="AG131" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.2">
@@ -13399,7 +13395,7 @@
         <v>419</v>
       </c>
       <c r="AG132" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.2">
@@ -13658,15 +13654,10 @@
       <c r="Z135" t="s">
         <v>37</v>
       </c>
-      <c r="AA135" s="12"/>
-      <c r="AB135" s="12"/>
-      <c r="AC135" s="12">
+      <c r="AC135">
         <v>305</v>
       </c>
-      <c r="AD135" s="12"/>
-      <c r="AE135" s="12"/>
-      <c r="AF135" s="12"/>
-      <c r="AG135" s="13"/>
+      <c r="AG135" s="3"/>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136">
@@ -13747,17 +13738,13 @@
       <c r="Z136" t="s">
         <v>37</v>
       </c>
-      <c r="AA136" s="12">
+      <c r="AA136">
         <v>12.876097</v>
       </c>
-      <c r="AB136" s="12">
+      <c r="AB136">
         <v>43.463062999999998</v>
       </c>
-      <c r="AC136" s="12"/>
-      <c r="AD136" s="12"/>
-      <c r="AE136" s="12"/>
-      <c r="AF136" s="12"/>
-      <c r="AG136" s="13"/>
+      <c r="AG136" s="3"/>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137">
@@ -13938,7 +13925,7 @@
         <v>648</v>
       </c>
       <c r="AG138" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.2">
@@ -14108,7 +14095,7 @@
         <v>6</v>
       </c>
       <c r="AG140" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.2">
@@ -14194,7 +14181,7 @@
         <v>530</v>
       </c>
       <c r="AG141" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.2">
@@ -14724,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="AG147" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.2">
@@ -14900,7 +14887,7 @@
         <v>667</v>
       </c>
       <c r="AG149" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.2">
@@ -15170,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="AG152" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.2">
@@ -15263,7 +15250,7 @@
         <v>0</v>
       </c>
       <c r="AG153" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.2">
@@ -15354,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="AG154" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.2">
@@ -15530,7 +15517,7 @@
         <v>249</v>
       </c>
       <c r="AG156" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.2">
@@ -15616,7 +15603,7 @@
         <v>471</v>
       </c>
       <c r="AG157" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.2">
@@ -15792,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="AG159" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.2">
@@ -16152,7 +16139,7 @@
         <v>0</v>
       </c>
       <c r="AG163" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
